--- a/medicine/Psychotrope/Dongdongju/Dongdongju.xlsx
+++ b/medicine/Psychotrope/Dongdongju/Dongdongju.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dongdongju (동동주) est un alcool traditionnel coréen, le plus célèbre des makgeolli. Il est originaire de la province de Gyeonggi.
 Il s'agit d'un alcool de riz gluant, cuit puis fermenté par l'ajout d'une petite quantité de malt de froment ; c'est un type de bière ancestral.
@@ -513,7 +525,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
